--- a/FCSElo.xlsx
+++ b/FCSElo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\FCFB-Spread-Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\FCFB-Score-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67135538-96B7-4159-A62A-73D1B5894D45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D73A1CC-7977-4BDD-88E1-5BCB42CD1B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47745" yWindow="17070" windowWidth="28800" windowHeight="15435" xr2:uid="{39BF51B1-198D-4251-A805-7D4AC2CB1B27}"/>
+    <workbookView xWindow="360" yWindow="720" windowWidth="28800" windowHeight="15435" xr2:uid="{39BF51B1-198D-4251-A805-7D4AC2CB1B27}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="290">
   <si>
     <t>Elo  ▲ ▼</t>
   </si>
@@ -504,19 +504,436 @@
   </si>
   <si>
     <t>Tennessee State (0-0)</t>
+  </si>
+  <si>
+    <t>Fresno State</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Appalachian State</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>Georgia Southern</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Louisiana-Monroe</t>
+  </si>
+  <si>
+    <t>Miami, OH</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Arkansas State</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>Central Michigan</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Coastal Carolina</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>Eastern Michigan</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Louisiana Tech</t>
+  </si>
+  <si>
+    <t>Louisiana-Lafayette</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Middle Tennessee</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>Northern Illinois</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Oregon State</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Jacksonville State</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>Sam Houston State</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>UCF</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>San Jose State</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Western Michigan</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Texas State</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ELO</t>
+  </si>
+  <si>
+    <t>±</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -527,7 +944,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -535,13 +952,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,9 +1329,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DFDFD-CCEF-4F03-9701-033FE1903192}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -904,7 +1344,7 @@
     <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -920,8 +1360,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1710</v>
       </c>
@@ -934,8 +1383,14 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1537.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1660</v>
       </c>
@@ -948,8 +1403,14 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1534.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1628</v>
       </c>
@@ -965,8 +1426,14 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1533.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1624</v>
       </c>
@@ -982,8 +1449,14 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1532.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1610</v>
       </c>
@@ -996,8 +1469,14 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1532.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1589</v>
       </c>
@@ -1010,8 +1489,14 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1530.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1583</v>
       </c>
@@ -1024,8 +1509,14 @@
       <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1530.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1583</v>
       </c>
@@ -1041,8 +1532,14 @@
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1530.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1583</v>
       </c>
@@ -1055,8 +1552,14 @@
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1529.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1579</v>
       </c>
@@ -1069,8 +1572,14 @@
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1529.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1574</v>
       </c>
@@ -1083,8 +1592,14 @@
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1529.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1573</v>
       </c>
@@ -1097,8 +1612,14 @@
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1529.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1572</v>
       </c>
@@ -1114,8 +1635,14 @@
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1528.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1570</v>
       </c>
@@ -1128,8 +1655,14 @@
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1528.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1570</v>
       </c>
@@ -1142,8 +1675,14 @@
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1527.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1568</v>
       </c>
@@ -1156,8 +1695,14 @@
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1527.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1560</v>
       </c>
@@ -1173,8 +1718,14 @@
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1527.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1558</v>
       </c>
@@ -1190,8 +1741,14 @@
       <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1527.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1558</v>
       </c>
@@ -1204,8 +1761,14 @@
       <c r="E20" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1527.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1557</v>
       </c>
@@ -1218,8 +1781,14 @@
       <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1526.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1556</v>
       </c>
@@ -1232,8 +1801,14 @@
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1524.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1555</v>
       </c>
@@ -1249,8 +1824,14 @@
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1523.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1555</v>
       </c>
@@ -1263,8 +1844,14 @@
       <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1520.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1553</v>
       </c>
@@ -1277,8 +1864,14 @@
       <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1520.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1552</v>
       </c>
@@ -1291,8 +1884,14 @@
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1520.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1547</v>
       </c>
@@ -1305,8 +1904,14 @@
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1520.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1545</v>
       </c>
@@ -1322,8 +1927,14 @@
       <c r="E28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1519.46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1545</v>
       </c>
@@ -1336,8 +1947,14 @@
       <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1517.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1544</v>
       </c>
@@ -1350,8 +1967,14 @@
       <c r="E30" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1517.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1544</v>
       </c>
@@ -1364,8 +1987,14 @@
       <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1516.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1543</v>
       </c>
@@ -1378,8 +2007,14 @@
       <c r="E32" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1516.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1541</v>
       </c>
@@ -1392,8 +2027,14 @@
       <c r="E33" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1516.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1536</v>
       </c>
@@ -1409,8 +2050,14 @@
       <c r="E34" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1513.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1535</v>
       </c>
@@ -1423,8 +2070,14 @@
       <c r="E35" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1513.86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1535</v>
       </c>
@@ -1440,8 +2093,14 @@
       <c r="E36" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1513.86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1534</v>
       </c>
@@ -1454,8 +2113,14 @@
       <c r="E37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1510.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1534</v>
       </c>
@@ -1468,8 +2133,14 @@
       <c r="E38" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1506.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1531</v>
       </c>
@@ -1482,8 +2153,14 @@
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1530</v>
       </c>
@@ -1496,8 +2173,14 @@
       <c r="E40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1525</v>
       </c>
@@ -1510,8 +2193,14 @@
       <c r="E41" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1524</v>
       </c>
@@ -1524,8 +2213,14 @@
       <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1522</v>
       </c>
@@ -1541,8 +2236,14 @@
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1521</v>
       </c>
@@ -1558,8 +2259,14 @@
       <c r="E44" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1519</v>
       </c>
@@ -1572,8 +2279,14 @@
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1517</v>
       </c>
@@ -1589,8 +2302,14 @@
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1516</v>
       </c>
@@ -1603,8 +2322,14 @@
       <c r="E47" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1514</v>
       </c>
@@ -1617,8 +2342,14 @@
       <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1513</v>
       </c>
@@ -1631,8 +2362,14 @@
       <c r="E49" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1513</v>
       </c>
@@ -1648,8 +2385,14 @@
       <c r="E50" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1510</v>
       </c>
@@ -1662,8 +2405,14 @@
       <c r="E51" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I51" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J51" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1508</v>
       </c>
@@ -1676,8 +2425,14 @@
       <c r="E52" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1508</v>
       </c>
@@ -1690,8 +2445,14 @@
       <c r="E53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J53" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1508</v>
       </c>
@@ -1704,8 +2465,14 @@
       <c r="E54" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1507</v>
       </c>
@@ -1721,8 +2488,14 @@
       <c r="E55" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J55" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1507</v>
       </c>
@@ -1738,8 +2511,14 @@
       <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1504</v>
       </c>
@@ -1752,8 +2531,14 @@
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I57" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1503</v>
       </c>
@@ -1766,8 +2551,14 @@
       <c r="E58" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I58" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1503</v>
       </c>
@@ -1780,8 +2571,14 @@
       <c r="E59" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I59" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1502</v>
       </c>
@@ -1794,8 +2591,14 @@
       <c r="E60" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1500</v>
       </c>
@@ -1808,8 +2611,14 @@
       <c r="E61" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I61" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1500</v>
       </c>
@@ -1822,8 +2631,14 @@
       <c r="E62" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I62" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1500</v>
       </c>
@@ -1836,8 +2651,14 @@
       <c r="E63" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I63" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1500</v>
       </c>
@@ -1850,8 +2671,14 @@
       <c r="E64" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I64" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J64" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1498</v>
       </c>
@@ -1864,8 +2691,14 @@
       <c r="E65" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I65" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1496</v>
       </c>
@@ -1881,8 +2714,14 @@
       <c r="E66" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1496</v>
       </c>
@@ -1898,8 +2737,14 @@
       <c r="E67" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J67" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1495</v>
       </c>
@@ -1912,8 +2757,14 @@
       <c r="E68" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I68" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J68" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1493</v>
       </c>
@@ -1929,8 +2780,14 @@
       <c r="E69" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I69" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1492</v>
       </c>
@@ -1943,8 +2800,14 @@
       <c r="E70" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I70" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1490</v>
       </c>
@@ -1957,8 +2820,14 @@
       <c r="E71" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I71" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J71" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1488</v>
       </c>
@@ -1974,8 +2843,14 @@
       <c r="E72" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I72" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1488</v>
       </c>
@@ -1988,8 +2863,14 @@
       <c r="E73" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J73" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1488</v>
       </c>
@@ -2002,8 +2883,14 @@
       <c r="E74" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1486</v>
       </c>
@@ -2019,8 +2906,14 @@
       <c r="E75" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1486</v>
       </c>
@@ -2036,8 +2929,14 @@
       <c r="E76" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1485</v>
       </c>
@@ -2050,8 +2949,14 @@
       <c r="E77" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1484</v>
       </c>
@@ -2064,8 +2969,14 @@
       <c r="E78" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I78" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J78" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1483</v>
       </c>
@@ -2081,8 +2992,14 @@
       <c r="E79" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I79" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1483</v>
       </c>
@@ -2095,8 +3012,14 @@
       <c r="E80" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J80" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1482</v>
       </c>
@@ -2109,8 +3032,14 @@
       <c r="E81" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I81" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1482</v>
       </c>
@@ -2126,8 +3055,14 @@
       <c r="E82" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J82" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1481</v>
       </c>
@@ -2140,8 +3075,14 @@
       <c r="E83" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1480</v>
       </c>
@@ -2154,8 +3095,14 @@
       <c r="E84" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I84" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J84" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1480</v>
       </c>
@@ -2168,8 +3115,14 @@
       <c r="E85" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1480</v>
       </c>
@@ -2182,8 +3135,14 @@
       <c r="E86" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I86" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J86" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1479</v>
       </c>
@@ -2199,8 +3158,14 @@
       <c r="E87" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I87" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J87" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1478</v>
       </c>
@@ -2213,8 +3178,14 @@
       <c r="E88" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I88" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1475</v>
       </c>
@@ -2227,8 +3198,14 @@
       <c r="E89" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1474</v>
       </c>
@@ -2241,8 +3218,14 @@
       <c r="E90" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I90" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J90" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1473</v>
       </c>
@@ -2258,8 +3241,14 @@
       <c r="E91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I91" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J91" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1471</v>
       </c>
@@ -2272,8 +3261,14 @@
       <c r="E92" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I92" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J92" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1469</v>
       </c>
@@ -2286,8 +3281,14 @@
       <c r="E93" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I93" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1468</v>
       </c>
@@ -2300,8 +3301,14 @@
       <c r="E94" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I94" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1468</v>
       </c>
@@ -2314,8 +3321,14 @@
       <c r="E95" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I95" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J95" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1468</v>
       </c>
@@ -2328,8 +3341,14 @@
       <c r="E96" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I96" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J96" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1467</v>
       </c>
@@ -2342,8 +3361,14 @@
       <c r="E97" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I97" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J97" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1464</v>
       </c>
@@ -2356,8 +3381,14 @@
       <c r="E98" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I98" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J98" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1460</v>
       </c>
@@ -2370,8 +3401,14 @@
       <c r="E99" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I99" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J99" s="3">
+        <v>1493.07</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1459</v>
       </c>
@@ -2387,8 +3424,14 @@
       <c r="E100" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I100" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1489.01</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1459</v>
       </c>
@@ -2401,8 +3444,14 @@
       <c r="E101" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I101" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1486.14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1458</v>
       </c>
@@ -2415,8 +3464,14 @@
       <c r="E102" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I102" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1486.14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1457</v>
       </c>
@@ -2429,8 +3484,14 @@
       <c r="E103" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I103" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J103" s="3">
+        <v>1486.14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1457</v>
       </c>
@@ -2443,8 +3504,14 @@
       <c r="E104" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I104" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J104" s="3">
+        <v>1483.91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1456</v>
       </c>
@@ -2457,8 +3524,14 @@
       <c r="E105" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I105" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J105" s="3">
+        <v>1483.91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1456</v>
       </c>
@@ -2471,8 +3544,14 @@
       <c r="E106" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I106" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1483.91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1455</v>
       </c>
@@ -2485,8 +3564,14 @@
       <c r="E107" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I107" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J107" s="3">
+        <v>1482.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1452</v>
       </c>
@@ -2499,8 +3584,14 @@
       <c r="E108" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I108" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J108" s="3">
+        <v>1482.08</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1451</v>
       </c>
@@ -2513,8 +3604,14 @@
       <c r="E109" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I109" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J109" s="3">
+        <v>1480.54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1451</v>
       </c>
@@ -2527,8 +3624,14 @@
       <c r="E110" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I110" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J110" s="3">
+        <v>1479.21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1449</v>
       </c>
@@ -2541,8 +3644,14 @@
       <c r="E111" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I111" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1479.21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1449</v>
       </c>
@@ -2558,8 +3667,14 @@
       <c r="E112" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I112" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J112" s="3">
+        <v>1479.21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1449</v>
       </c>
@@ -2572,8 +3687,14 @@
       <c r="E113" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I113" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J113" s="3">
+        <v>1479.21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1444</v>
       </c>
@@ -2586,8 +3707,14 @@
       <c r="E114" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I114" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J114" s="3">
+        <v>1476.02</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1441</v>
       </c>
@@ -2600,8 +3727,14 @@
       <c r="E115" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I115" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J115" s="3">
+        <v>1475.15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1439</v>
       </c>
@@ -2614,8 +3747,14 @@
       <c r="E116" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I116" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J116" s="3">
+        <v>1473.61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1438</v>
       </c>
@@ -2628,8 +3767,14 @@
       <c r="E117" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I117" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J117" s="3">
+        <v>1472.92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1433</v>
       </c>
@@ -2642,8 +3787,14 @@
       <c r="E118" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I118" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J118" s="3">
+        <v>1472.92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1426</v>
       </c>
@@ -2656,8 +3807,14 @@
       <c r="E119" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I119" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J119" s="3">
+        <v>1472.92</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1424</v>
       </c>
@@ -2670,8 +3827,14 @@
       <c r="E120" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I120" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J120" s="3">
+        <v>1472.92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1423</v>
       </c>
@@ -2684,8 +3847,14 @@
       <c r="E121" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I121" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J121" s="3">
+        <v>1472.27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1420</v>
       </c>
@@ -2701,8 +3870,14 @@
       <c r="E122" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I122" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J122" s="3">
+        <v>1471.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1414</v>
       </c>
@@ -2715,8 +3890,14 @@
       <c r="E123" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I123" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J123" s="3">
+        <v>1471.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1412</v>
       </c>
@@ -2729,8 +3910,14 @@
       <c r="E124" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I124" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J124" s="3">
+        <v>1470.56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1409</v>
       </c>
@@ -2746,8 +3933,14 @@
       <c r="E125" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I125" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J125" s="3">
+        <v>1470.04</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1407</v>
       </c>
@@ -2760,8 +3953,14 @@
       <c r="E126" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I126" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J126" s="3">
+        <v>1470.04</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1403</v>
       </c>
@@ -2774,8 +3973,14 @@
       <c r="E127" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I127" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J127" s="3">
+        <v>1470.04</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1401</v>
       </c>
@@ -2788,8 +3993,14 @@
       <c r="E128" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I128" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J128" s="3">
+        <v>1469.55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1393</v>
       </c>
@@ -2802,8 +4013,14 @@
       <c r="E129" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I129" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J129" s="3">
+        <v>1469.55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1381</v>
       </c>
@@ -2816,8 +4033,14 @@
       <c r="E130" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I130" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J130" s="3">
+        <v>1469.09</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1368</v>
       </c>
@@ -2830,11 +4053,50 @@
       <c r="E131" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="I131" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J131" s="3">
+        <v>1467.81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I132" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J132" s="3">
+        <v>1467.81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I133" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J133" s="3">
+        <v>1466.68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I134" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J134" s="3">
+        <v>1465.03</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I135" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J135" s="3">
+        <v>1462.39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
